--- a/Docs/Features.xlsx
+++ b/Docs/Features.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jamie\Desktop\Game dev\Game Jams\Radioactivity\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C81E0F5D-2D97-479B-866D-20BC6861CD2B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9DD768-12E6-4EB0-8482-294C4A6B7E32}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{6858454D-F880-4623-BF26-F48D15F1D515}"/>
   </bookViews>
@@ -30,10 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
-  <si>
-    <t>Feature</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>Description</t>
   </si>
@@ -47,9 +44,6 @@
     <t>Smooth consistent move speed in 360 degrees</t>
   </si>
   <si>
-    <t>Almost Complete</t>
-  </si>
-  <si>
     <t>Enemy A.I</t>
   </si>
   <si>
@@ -90,6 +84,24 @@
   </si>
   <si>
     <t>Add features such as screen shake, sounds for player hit, frame pauses etc to make game feel better to play</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Feature/Bug</t>
+  </si>
+  <si>
+    <t>Fix player dash</t>
+  </si>
+  <si>
+    <t>As player dashes towards point user can get stuck</t>
+  </si>
+  <si>
+    <t>Allow player to dash off screen</t>
+  </si>
+  <si>
+    <t>The players movement is wrapped around the edges of the screen allow player to dash offscreen and appear at the right point on the other side of the screen</t>
   </si>
 </sst>
 </file>
@@ -112,7 +124,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -122,12 +134,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -143,8 +149,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -161,11 +179,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -176,34 +209,35 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="8">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF00B0F0"/>
+          <fgColor rgb="FF92D050"/>
           <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
@@ -211,7 +245,7 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFED7D31"/>
+          <fgColor rgb="FFC00000"/>
           <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
@@ -227,7 +261,7 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFED7D31"/>
+          <fgColor rgb="FF92D050"/>
           <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
@@ -235,7 +269,23 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFED7D31"/>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00B0F0"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00B0F0"/>
           <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
@@ -558,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{886324AF-8232-42F7-8451-41E9E11EB246}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -571,104 +621,131 @@
     <col min="3" max="3" width="20.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="11"/>
+    </row>
+    <row r="8" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="B10" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
+      <c r="C10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B12" s="8"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B13" s="8"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B13" s="7"/>
     </row>
   </sheetData>
-  <sortState ref="A2:C8">
-    <sortCondition sortBy="cellColor" ref="C2:C8" dxfId="3"/>
-    <sortCondition sortBy="cellColor" ref="C2:C8" dxfId="2"/>
+  <sortState ref="A2:C10">
+    <sortCondition sortBy="cellColor" ref="C2:C10" dxfId="5"/>
+    <sortCondition sortBy="cellColor" ref="C2:C10" dxfId="4"/>
+    <sortCondition sortBy="cellColor" ref="C2:C10" dxfId="3"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
